--- a/public/assets/data/texts.xlsx
+++ b/public/assets/data/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekzmw\developer-web\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815F8BF-4E02-4581-A4F4-9EBB45E16508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F17EB-41CD-4FE6-BD86-400F1BB52D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7428" yWindow="732" windowWidth="12804" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6324" yWindow="864" windowWidth="16368" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="143">
   <si>
     <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,58 @@
   </si>
   <si>
     <t>주요기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 프로젝트는 포트폴리오를 보다 심플하고 편리하게 정리하기 위해 제작된 웹사이트로, 기존에 어플리케이션 기반의 프로젝트만 진행했던 경험을 확장하여 웹 개발을 학습하고자 진행되었습니다. Visual Studio Code와 React를 사용하여 빌드하였으며, Firebase를 통해 서버 연결과 배포까지 완료했습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This project is a website designed to organize my portfolio in a more simple and convenient manner. It was undertaken to expand my experience beyond application-based projects and to learn web development. The project was built using Visual Studio Code and React, with server connection and deployment managed through Firebase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 선택 (영어 / 한국어)</t>
+  </si>
+  <si>
+    <t>간략한 자기소개</t>
+  </si>
+  <si>
+    <t>프로젝트 소개</t>
+  </si>
+  <si>
+    <t>Github, Playstore 링크</t>
+  </si>
+  <si>
+    <t>Github, Playstore Links</t>
+  </si>
+  <si>
+    <t>Project Introduction</t>
+  </si>
+  <si>
+    <t>Brief Self-Introduction</t>
+  </si>
+  <si>
+    <t>Language Selection (English / Korean)</t>
+  </si>
+  <si>
+    <t>pfLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfSi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfIntro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfLink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1705,6 +1757,116 @@
         <v>127</v>
       </c>
     </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
